--- a/学习笔记/wpf学习笔记.xlsx
+++ b/学习笔记/wpf学习笔记.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="进阶_27样式基础" sheetId="1" r:id="rId1"/>
+    <sheet name="基础_27样式基础" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -809,7 +809,7 @@
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
